--- a/table/Table_S4_DMR_LD.xlsx
+++ b/table/Table_S4_DMR_LD.xlsx
@@ -25,167 +25,168 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>DMR in LD</t>
+  </si>
+  <si>
+    <t>Sweep DMR in LD</t>
+  </si>
+  <si>
+    <t>Interacting DMR in LD</t>
+  </si>
+  <si>
+    <t>Teosinte vs. Landrace</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Hypo in landrace</t>
+  </si>
+  <si>
+    <t>164 (57.5%)</t>
+  </si>
+  <si>
+    <t>71 (88.7%) **</t>
+  </si>
+  <si>
+    <t>47 (48.9%) *</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyper in landrace</t>
+  </si>
+  <si>
+    <t>97 (68.3%)</t>
+  </si>
+  <si>
+    <t>32 (88.8%)</t>
+  </si>
+  <si>
+    <t>37 (60.6%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHG</t>
+  </si>
+  <si>
+    <t>258 (59.1%)</t>
+  </si>
+  <si>
+    <t>111 (91.7%) **</t>
+  </si>
+  <si>
+    <t>72 (62.6%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>89 (59.7%)</t>
+  </si>
+  <si>
+    <t>38 (84.4%)</t>
+  </si>
+  <si>
+    <t>22 (56.4%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Landrace vs. Maize</t>
+  </si>
+  <si>
+    <t>Hypo in maize</t>
+  </si>
+  <si>
+    <t>32 (22.3%)</t>
+  </si>
+  <si>
+    <t>13 (44.8%)</t>
+  </si>
+  <si>
+    <t>10 (22.2%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyper in maize</t>
+  </si>
+  <si>
+    <t>18 (64.2%)</t>
+  </si>
+  <si>
+    <t>8 (61.5%)</t>
+  </si>
+  <si>
+    <t>2 (66.6%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 (20.2%)</t>
+  </si>
+  <si>
+    <t>18 (50%)</t>
+  </si>
+  <si>
+    <t>16 (34.7%) **</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (50%)</t>
+  </si>
+  <si>
+    <t>9 (69.2%)</t>
+  </si>
+  <si>
+    <t>3 (60%)</t>
+  </si>
+  <si>
+    <t>Teosinte vs. Maize</t>
+  </si>
+  <si>
+    <t>452 (45.2%)</t>
+  </si>
+  <si>
+    <t>220 (78.2%) **</t>
+  </si>
+  <si>
+    <t>178 (44.9%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>353 (64.8%)</t>
+  </si>
+  <si>
+    <t>135 (91.8%) **</t>
+  </si>
+  <si>
+    <t>144 (55.%) **</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>855 (46.1%)</t>
+  </si>
+  <si>
+    <t>369 (75.3%) **</t>
+  </si>
+  <si>
+    <t>299 (50.3%) *</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>366 (72.7%)</t>
+  </si>
+  <si>
+    <t>147 (92.4%) **</t>
+  </si>
+  <si>
+    <t>93 (75%)</t>
+  </si>
+  <si>
     <t>Comparison</t>
-  </si>
-  <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>DMR in LD</t>
-  </si>
-  <si>
-    <t>Sweep DMR in LD</t>
-  </si>
-  <si>
-    <t>Interacting DMR in LD</t>
-  </si>
-  <si>
-    <t>Teosinte vs. Landrace</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Hypo in landrace</t>
-  </si>
-  <si>
-    <t>164 (57.5%)</t>
-  </si>
-  <si>
-    <t>71 (88.7%) **</t>
-  </si>
-  <si>
-    <t>47 (48.9%) *</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyper in landrace</t>
-  </si>
-  <si>
-    <t>97 (68.3%)</t>
-  </si>
-  <si>
-    <t>32 (88.8%)</t>
-  </si>
-  <si>
-    <t>37 (60.6%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHG</t>
-  </si>
-  <si>
-    <t>258 (59.1%)</t>
-  </si>
-  <si>
-    <t>111 (91.7%) **</t>
-  </si>
-  <si>
-    <t>72 (62.6%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>89 (59.7%)</t>
-  </si>
-  <si>
-    <t>38 (84.4%)</t>
-  </si>
-  <si>
-    <t>22 (56.4%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Landrace vs. Maize</t>
-  </si>
-  <si>
-    <t>Hypo in maize</t>
-  </si>
-  <si>
-    <t>32 (22.3%)</t>
-  </si>
-  <si>
-    <t>13 (44.8%)</t>
-  </si>
-  <si>
-    <t>10 (22.2%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyper in maize</t>
-  </si>
-  <si>
-    <t>18 (64.2%)</t>
-  </si>
-  <si>
-    <t>8 (61.5%)</t>
-  </si>
-  <si>
-    <t>2 (66.6%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 (20.2%)</t>
-  </si>
-  <si>
-    <t>18 (50%)</t>
-  </si>
-  <si>
-    <t>16 (34.7%) **</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 (50%)</t>
-  </si>
-  <si>
-    <t>9 (69.2%)</t>
-  </si>
-  <si>
-    <t>3 (60%)</t>
-  </si>
-  <si>
-    <t>Teosinte vs. Maize</t>
-  </si>
-  <si>
-    <t>452 (45.2%)</t>
-  </si>
-  <si>
-    <t>220 (78.2%) **</t>
-  </si>
-  <si>
-    <t>178 (44.9%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>353 (64.8%)</t>
-  </si>
-  <si>
-    <t>135 (91.8%) **</t>
-  </si>
-  <si>
-    <t>144 (55.%) **</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>855 (46.1%)</t>
-  </si>
-  <si>
-    <t>369 (75.3%) **</t>
-  </si>
-  <si>
-    <t>299 (50.3%) *</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>366 (72.7%)</t>
-  </si>
-  <si>
-    <t>147 (92.4%) **</t>
-  </si>
-  <si>
-    <t>93 (75%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,7 +293,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -301,169 +302,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,53 +323,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,7 +636,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -799,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -810,276 +655,348 @@
     <col min="1" max="6" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11" t="s">
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="52.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="E11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="B12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="E12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table/Table_S4_DMR_LD.xlsx
+++ b/table/Table_S4_DMR_LD.xlsx
@@ -21,10 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
-    <t>Table S4 Linkage disequilibrium (LD) analysis between DMR and local SNP.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Context</t>
   </si>
   <si>
@@ -56,7 +52,7 @@
   </si>
   <si>
     <t>47 (48.9%) *</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hyper in landrace</t>
@@ -69,7 +65,7 @@
   </si>
   <si>
     <t>37 (60.6%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CHG</t>
@@ -82,7 +78,7 @@
   </si>
   <si>
     <t>72 (62.6%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>89 (59.7%)</t>
@@ -92,7 +88,7 @@
   </si>
   <si>
     <t>22 (56.4%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Landrace vs. Maize</t>
@@ -108,7 +104,7 @@
   </si>
   <si>
     <t>10 (22.2%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hyper in maize</t>
@@ -121,7 +117,7 @@
   </si>
   <si>
     <t>2 (66.6%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>32 (20.2%)</t>
@@ -131,7 +127,7 @@
   </si>
   <si>
     <t>16 (34.7%) **</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15 (50%)</t>
@@ -153,7 +149,7 @@
   </si>
   <si>
     <t>178 (44.9%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>353 (64.8%)</t>
@@ -163,7 +159,7 @@
   </si>
   <si>
     <t>144 (55.%) **</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>855 (46.1%)</t>
@@ -173,7 +169,7 @@
   </si>
   <si>
     <t>299 (50.3%) *</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>366 (72.7%)</t>
@@ -186,7 +182,11 @@
   </si>
   <si>
     <t>Comparison</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table S4. Linkage disequilibrium (LD) analysis between DMR and local SNP.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -195,7 +195,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -204,7 +204,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -214,7 +214,7 @@
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -223,34 +223,27 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>&lt;0.01 using the Chi-squared test.</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -260,26 +253,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -323,13 +317,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -337,32 +337,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,343 +644,344 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="6" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -998,8 +996,8 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/table/Table_S4_DMR_LD.xlsx
+++ b/table/Table_S4_DMR_LD.xlsx
@@ -228,7 +228,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;0.01 using the Chi-squared test.</t>
+      <t>&lt;0.01 using the pearson's Chi-squared test.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,40 +326,40 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -644,7 +644,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -698,258 +698,258 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
